--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_6.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_9</t>
+          <t>model_26_6_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999874504141435</v>
+        <v>0.9999879846055691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990812418934472</v>
+        <v>0.9991014777980149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999929237096968</v>
+        <v>0.999775399005811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999276829483363</v>
+        <v>0.9999370909318274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999678589255167</v>
+        <v>0.9999397204837517</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17144875338987e-05</v>
+        <v>1.121584328634199e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008576203636472162</v>
+        <v>0.0008387310349867498</v>
       </c>
       <c r="I2" t="n">
-        <v>3.265883114963356e-06</v>
+        <v>5.085153134360246e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>6.18289010856954e-05</v>
+        <v>1.91461097249652e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.254752350314752e-05</v>
+        <v>3.499934136518737e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000238134258609278</v>
+        <v>0.0001764521710434494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003422643354762324</v>
+        <v>0.003349006313272937</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000014342383836</v>
+        <v>1.00001373187935</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003568352368223034</v>
+        <v>0.003491580445427753</v>
       </c>
       <c r="P2" t="n">
-        <v>112.7093684628004</v>
+        <v>112.7963664002002</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.5587805818694</v>
+        <v>167.6457785192692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_10</t>
+          <t>model_26_6_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999875638712497</v>
+        <v>0.9999880788384816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990811326088198</v>
+        <v>0.9991008314606128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999923327871708</v>
+        <v>0.9997768585897027</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999269454846411</v>
+        <v>0.999937884560934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999674133235996</v>
+        <v>0.9999402141145258</v>
       </c>
       <c r="G3" t="n">
-        <v>1.160858030548958e-05</v>
+        <v>1.11278809988829e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008577223760498135</v>
+        <v>0.000839334362580673</v>
       </c>
       <c r="I3" t="n">
-        <v>3.538608486240973e-06</v>
+        <v>5.052106942253161e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>6.245941033375316e-05</v>
+        <v>1.890457205165e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.299876040489366e-05</v>
+        <v>3.471273070456614e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002316647788245575</v>
+        <v>0.0001764103732420921</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003407136672557997</v>
+        <v>0.003335847868066363</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000014212718572</v>
+        <v>1.000013624184592</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003552185534454011</v>
+        <v>0.003477861817966999</v>
       </c>
       <c r="P3" t="n">
-        <v>112.7275321035475</v>
+        <v>112.8121135944924</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5769442226166</v>
+        <v>167.6615257135614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_8</t>
+          <t>model_26_6_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999872847381528</v>
+        <v>0.9999881818851034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990810633275256</v>
+        <v>0.9991001066566159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999935423613808</v>
+        <v>0.9997784636991507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999285025822278</v>
+        <v>0.9999387675310756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999683460396577</v>
+        <v>0.9999407568884754</v>
       </c>
       <c r="G4" t="n">
-        <v>1.186913879892309e-05</v>
+        <v>1.1031691500703e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008577870470968646</v>
+        <v>0.0008400109352965503</v>
       </c>
       <c r="I4" t="n">
-        <v>2.980360051006672e-06</v>
+        <v>5.015765930630802e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>6.112813879476973e-05</v>
+        <v>1.863584381095625e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.205424942288821e-05</v>
+        <v>3.439758665686115e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002445372309181273</v>
+        <v>0.0001763942983524381</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003445161650622955</v>
+        <v>0.003321399027624202</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000014531727825</v>
+        <v>1.000013506417025</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00359182931455775</v>
+        <v>0.003462797860473992</v>
       </c>
       <c r="P4" t="n">
-        <v>112.6831378094385</v>
+        <v>112.82947676381</v>
       </c>
       <c r="Q4" t="n">
-        <v>167.5325499285075</v>
+        <v>167.678888882879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_11</t>
+          <t>model_26_6_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999876077840435</v>
+        <v>0.9999882957745631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990808328106783</v>
+        <v>0.9990993006559312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999991786922462</v>
+        <v>0.9997802585417833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999260739892102</v>
+        <v>0.9999397275350135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999669193693499</v>
+        <v>0.9999413598763697</v>
       </c>
       <c r="G5" t="n">
-        <v>1.156758963996137e-05</v>
+        <v>1.092538068929893e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008580022244552371</v>
+        <v>0.0008407633015563502</v>
       </c>
       <c r="I5" t="n">
-        <v>3.790538559588216e-06</v>
+        <v>4.975129202053146e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>6.320451267900353e-05</v>
+        <v>1.83436706590443e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.349896109234359e-05</v>
+        <v>3.404748133978788e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002255284032506544</v>
+        <v>0.0001763592393351357</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003401115940388003</v>
+        <v>0.003305356363434801</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000014162532522</v>
+        <v>1.000013376257642</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003545908487250906</v>
+        <v>0.003446072226857155</v>
       </c>
       <c r="P5" t="n">
-        <v>112.734606733802</v>
+        <v>112.8488439437746</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.5840188528711</v>
+        <v>167.6982560628436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_12</t>
+          <t>model_26_6_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999987625665533</v>
+        <v>0.9999884206712881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990805227947724</v>
+        <v>0.9990984049967516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999912537549306</v>
+        <v>0.9997822401523351</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999252929423516</v>
+        <v>0.9999407931434702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999664692829106</v>
+        <v>0.9999420256067052</v>
       </c>
       <c r="G6" t="n">
-        <v>1.155089805439746e-05</v>
+        <v>1.080879507878692e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008582916106952855</v>
+        <v>0.0008415993600856442</v>
       </c>
       <c r="I6" t="n">
-        <v>4.036608571392747e-06</v>
+        <v>4.930263892596539e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>6.38722842191114e-05</v>
+        <v>1.801935721699376e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.395473922663142e-05</v>
+        <v>3.366094666396513e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002195661282734005</v>
+        <v>0.0001763207857669941</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003398661215007676</v>
+        <v>0.003287673201336612</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000014142096534</v>
+        <v>1.000013233518528</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003543349259129157</v>
+        <v>0.003427636255939254</v>
       </c>
       <c r="P6" t="n">
-        <v>112.7374947407833</v>
+        <v>112.8703007921953</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5869068598523</v>
+        <v>167.7197129112643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_7</t>
+          <t>model_26_6_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999869688110008</v>
+        <v>0.9999885573533153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990804767126326</v>
+        <v>0.9990974015584132</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999941965850901</v>
+        <v>0.9997844495362395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999287863188175</v>
+        <v>0.9999419493589673</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999686148093949</v>
+        <v>0.9999427590916036</v>
       </c>
       <c r="G7" t="n">
-        <v>1.216404292766058e-05</v>
+        <v>1.068120840603279e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008583346263501021</v>
+        <v>0.0008425360257287246</v>
       </c>
       <c r="I7" t="n">
-        <v>2.678419616942088e-06</v>
+        <v>4.880241605174638e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>6.088555255623019e-05</v>
+        <v>1.76674679040968e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.178208088224254e-05</v>
+        <v>3.323507250402429e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002512705621151195</v>
+        <v>0.0001762815015183166</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003487698801166836</v>
+        <v>0.003268211805564749</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000014892787428</v>
+        <v>1.000013077310497</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003636177359664324</v>
+        <v>0.003407346348258739</v>
       </c>
       <c r="P7" t="n">
-        <v>112.634052518162</v>
+        <v>112.8940491684011</v>
       </c>
       <c r="Q7" t="n">
-        <v>167.4834646372311</v>
+        <v>167.7434612874701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_13</t>
+          <t>model_26_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999875956466386</v>
+        <v>0.999988706669612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.99908014922598</v>
+        <v>0.9990962850796198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999990778733596</v>
+        <v>0.9997868694470281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999243774629865</v>
+        <v>0.9999432327026324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999659745227162</v>
+        <v>0.9999435674802716</v>
       </c>
       <c r="G8" t="n">
-        <v>1.157891937461856e-05</v>
+        <v>1.054182819725349e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008586403207652591</v>
+        <v>0.0008435782096745966</v>
       </c>
       <c r="I8" t="n">
-        <v>4.255842674223947e-06</v>
+        <v>4.825452814162474e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.465499150332751e-05</v>
+        <v>1.727688766915296e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.445575605062781e-05</v>
+        <v>3.276570790538885e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000214096026693322</v>
+        <v>0.0001762267154721268</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003402781123525074</v>
+        <v>0.003246818165104645</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000014176403841</v>
+        <v>1.000012906663301</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003547644560681526</v>
+        <v>0.003385041936233308</v>
       </c>
       <c r="P8" t="n">
-        <v>112.7326488168557</v>
+        <v>112.920319153285</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.5820609359247</v>
+        <v>167.769731272354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_14</t>
+          <t>model_26_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999875449083023</v>
+        <v>0.9999888716780605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990796911938193</v>
+        <v>0.9990950348701801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999903520540194</v>
+        <v>0.999789595538669</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999234793210179</v>
+        <v>0.9999446414154274</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999654984943557</v>
+        <v>0.9999444673286654</v>
       </c>
       <c r="G9" t="n">
-        <v>1.162628138439018e-05</v>
+        <v>1.038780005369159e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008590678736819159</v>
+        <v>0.0008447452253086082</v>
       </c>
       <c r="I9" t="n">
-        <v>4.452765859259017e-06</v>
+        <v>4.76373183424508e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>6.542287583568883e-05</v>
+        <v>1.684815186800402e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.493780416189217e-05</v>
+        <v>3.224324019050394e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002090284593693508</v>
+        <v>0.0001761615425024228</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003409733330392596</v>
+        <v>0.003223011022893281</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000014234390512</v>
+        <v>1.000012718082216</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003554892737388451</v>
+        <v>0.003360221274690429</v>
       </c>
       <c r="P9" t="n">
-        <v>112.7244847719023</v>
+        <v>112.9497570243292</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5738968909713</v>
+        <v>167.7991691433982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_6</t>
+          <t>model_26_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999865570750162</v>
+        <v>0.9999890491798372</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999079368549841</v>
+        <v>0.9990936418423465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999948429561872</v>
+        <v>0.9997925662479533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999290631422036</v>
+        <v>0.9999461703884348</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999688790749445</v>
+        <v>0.9999454481292339</v>
       </c>
       <c r="G10" t="n">
-        <v>1.254838039619016e-05</v>
+        <v>1.022210993649956e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000859369047673267</v>
+        <v>0.0008460455556445355</v>
       </c>
       <c r="I10" t="n">
-        <v>2.380103357810465e-06</v>
+        <v>4.696472507619706e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>6.064887689865585e-05</v>
+        <v>1.638281537808279e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.151447348811944e-05</v>
+        <v>3.167377022713992e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002573528882859605</v>
+        <v>0.0001760917157053992</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00354236931956426</v>
+        <v>0.00319720345559984</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000015363342839</v>
+        <v>1.000012515223043</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003693175315213501</v>
+        <v>0.003333315025828276</v>
       </c>
       <c r="P10" t="n">
-        <v>112.5718379056216</v>
+        <v>112.9819150855693</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.4212500246907</v>
+        <v>167.8313272046383</v>
       </c>
     </row>
     <row r="11">
@@ -1017,602 +1017,602 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999874841561436</v>
+        <v>0.9999892435618254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990791741816325</v>
+        <v>0.9990920739890897</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999899566238869</v>
+        <v>0.9997958908585949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999226541277454</v>
+        <v>0.9999478415764768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999965059644607</v>
+        <v>0.9999465351907895</v>
       </c>
       <c r="G11" t="n">
-        <v>1.168299085795453e-05</v>
+        <v>1.004066288296833e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008595504818641245</v>
+        <v>0.0008475090778389124</v>
       </c>
       <c r="I11" t="n">
-        <v>4.635266652403124e-06</v>
+        <v>4.621200560201202e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>6.612839122998819e-05</v>
+        <v>1.587419634190017e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.538220350882211e-05</v>
+        <v>3.104260327632402e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002043172030700362</v>
+        <v>0.0001760147058911848</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00341803903692666</v>
+        <v>0.003168700503829343</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00001430382155</v>
+        <v>1.0000122930722</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003563552035044853</v>
+        <v>0.003303598644391665</v>
       </c>
       <c r="P11" t="n">
-        <v>112.7147530934759</v>
+        <v>113.0177348433603</v>
       </c>
       <c r="Q11" t="n">
-        <v>167.5641652125449</v>
+        <v>167.8671469624294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_16</t>
+          <t>model_26_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999987428867797</v>
+        <v>0.9999894531932311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990787206766956</v>
+        <v>0.9990903291443658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999989599622637</v>
+        <v>0.9997995439590356</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999219609585702</v>
+        <v>0.9999496547485811</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999646860418338</v>
+        <v>0.9999477221926411</v>
       </c>
       <c r="G12" t="n">
-        <v>1.173460010250898e-05</v>
+        <v>9.844981167435696e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008599738088162053</v>
+        <v>0.0008491378137988961</v>
       </c>
       <c r="I12" t="n">
-        <v>4.80003156511591e-06</v>
+        <v>4.538491330783536e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>6.672102999750794e-05</v>
+        <v>1.532236505478451e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.576053078131192e-05</v>
+        <v>3.035340924171298e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001998227472216008</v>
+        <v>0.000175909547739346</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003425580257782465</v>
+        <v>0.003137671296907261</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000014367008232</v>
+        <v>1.00001205349345</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003571414301284969</v>
+        <v>0.003271248459891597</v>
       </c>
       <c r="P12" t="n">
-        <v>112.7059376131479</v>
+        <v>113.057097517563</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5553497322169</v>
+        <v>167.906509636632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_17</t>
+          <t>model_26_6_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999987358694936</v>
+        <v>0.9999896787049042</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990782196438426</v>
+        <v>0.9990883810005413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999893066184734</v>
+        <v>0.9998035568487679</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999212289215738</v>
+        <v>0.9999516301807017</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999643106014853</v>
+        <v>0.9999490219348705</v>
       </c>
       <c r="G13" t="n">
-        <v>1.180010338806667e-05</v>
+        <v>9.634475919436785e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008604415009915957</v>
+        <v>0.0008509563205453579</v>
       </c>
       <c r="I13" t="n">
-        <v>4.935260238528617e-06</v>
+        <v>4.447636172843738e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>6.734689958162072e-05</v>
+        <v>1.472115061571877e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.614071886659269e-05</v>
+        <v>2.959875617207808e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001958073998113769</v>
+        <v>0.0001758162542767511</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003435127856145484</v>
+        <v>0.00310394521849803</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000014447205787</v>
+        <v>1.000011795765824</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003581368360676555</v>
+        <v>0.003236086592501879</v>
       </c>
       <c r="P13" t="n">
-        <v>112.6948045296609</v>
+        <v>113.1003253019867</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.54421664873</v>
+        <v>167.9497374210557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_18</t>
+          <t>model_26_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999872764459429</v>
+        <v>0.9999899205881903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990777906587819</v>
+        <v>0.9990861970733356</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999890245135041</v>
+        <v>0.9998079739114354</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999204912011527</v>
+        <v>0.999953766374737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999639338263041</v>
+        <v>0.9999504430093056</v>
       </c>
       <c r="G14" t="n">
-        <v>1.187687921282632e-05</v>
+        <v>9.408688489361915e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008608419397155081</v>
+        <v>0.0008529949207286575</v>
       </c>
       <c r="I14" t="n">
-        <v>5.065458664058246e-06</v>
+        <v>4.347630203817951e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>6.797762832255988e-05</v>
+        <v>1.407100896550171e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.652225866457884e-05</v>
+        <v>2.877365550184061e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001921882422706827</v>
+        <v>0.0001756952912239768</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003446284842091018</v>
+        <v>0.003067358552462023</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000014541204637</v>
+        <v>1.000011519327783</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003593000322611936</v>
+        <v>0.003197942356347879</v>
       </c>
       <c r="P14" t="n">
-        <v>112.6818339421251</v>
+        <v>113.1477539764368</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.5312460611941</v>
+        <v>167.9971660955059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_5</t>
+          <t>model_26_6_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999859024233322</v>
+        <v>0.9999901814122625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990775933704255</v>
+        <v>0.9990837457862124</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999954861598529</v>
+        <v>0.9998128898033328</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999928385427813</v>
+        <v>0.9999560752064905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999687396081905</v>
+        <v>0.9999520065174132</v>
       </c>
       <c r="G15" t="n">
-        <v>1.315946900734099e-05</v>
+        <v>9.165220666808498e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008610260997362453</v>
+        <v>0.0008552830896589871</v>
       </c>
       <c r="I15" t="n">
-        <v>2.083248946650815e-06</v>
+        <v>4.236330326535233e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>6.122830229075648e-05</v>
+        <v>1.33683257534725e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.165570390822367e-05</v>
+        <v>2.786585535024552e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002637274792963718</v>
+        <v>0.0001755259610833837</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003627598242272839</v>
+        <v>0.003027411545662152</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016111516192</v>
+        <v>1.000011221243129</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003782032609609976</v>
+        <v>0.003156294722766833</v>
       </c>
       <c r="P15" t="n">
-        <v>112.4767379637348</v>
+        <v>113.2001891996841</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3261500828038</v>
+        <v>168.0496013187531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_19</t>
+          <t>model_26_6_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999872014791656</v>
+        <v>0.9999904576237305</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990773946107702</v>
+        <v>0.9990809913199197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999887792827927</v>
+        <v>0.9998182947202331</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999198436327676</v>
+        <v>0.9999585459471387</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999636052804406</v>
+        <v>0.9999537087547073</v>
       </c>
       <c r="G16" t="n">
-        <v>1.194685740870784e-05</v>
+        <v>8.907389385628521e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008612116331500127</v>
+        <v>0.0008578542630362301</v>
       </c>
       <c r="I16" t="n">
-        <v>5.178638706860039e-06</v>
+        <v>4.113958516850082e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>6.853127978788592e-05</v>
+        <v>1.261636625181217e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.685495924737298e-05</v>
+        <v>2.687750660676411e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001888396318504552</v>
+        <v>0.0001753532595033563</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003456422631668159</v>
+        <v>0.002984524984922814</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000014626880954</v>
+        <v>1.000010905572879</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003603569698879492</v>
+        <v>0.003111582392349402</v>
       </c>
       <c r="P16" t="n">
-        <v>112.6700845850449</v>
+        <v>113.2572587153198</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.5194967041139</v>
+        <v>168.1066708343888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_20</t>
+          <t>model_26_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999871214008225</v>
+        <v>0.9999907486231867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990770146256597</v>
+        <v>0.9990779095940804</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999885609354376</v>
+        <v>0.9998242034553229</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999191997658733</v>
+        <v>0.9999611931281633</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999632837427873</v>
+        <v>0.9999555563609417</v>
       </c>
       <c r="G17" t="n">
-        <v>1.202160702703734e-05</v>
+        <v>8.635754166649803e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000861566332571162</v>
+        <v>0.0008607309188350539</v>
       </c>
       <c r="I17" t="n">
-        <v>5.27941141538764e-06</v>
+        <v>3.980179844718763e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>6.908176659016716e-05</v>
+        <v>1.181070786535351e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.718056299574992e-05</v>
+        <v>2.580475411424376e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00018643012331032</v>
+        <v>0.0001751326040861621</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003467218918245189</v>
+        <v>0.002938665371669561</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00001471839906</v>
+        <v>1.000010573002072</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003614825605727501</v>
+        <v>0.003063770440417472</v>
       </c>
       <c r="P17" t="n">
-        <v>112.6576098834016</v>
+        <v>113.3191990236594</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.5070220024706</v>
+        <v>168.1686111427284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_21</t>
+          <t>model_26_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999870459496316</v>
+        <v>0.9999910521080395</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990766608896871</v>
+        <v>0.9990744459833849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999883792537545</v>
+        <v>0.9998307160079545</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999186100652114</v>
+        <v>0.9999639985549568</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999629926522997</v>
+        <v>0.9999575588133385</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209203740176469e-05</v>
+        <v>8.352464378019617e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008618965295743783</v>
+        <v>0.0008639640473842819</v>
       </c>
       <c r="I18" t="n">
-        <v>5.363262008823887e-06</v>
+        <v>3.832730241716226e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>6.958594289513395e-05</v>
+        <v>1.095688804616786e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.747533455013296e-05</v>
+        <v>2.464209523166506e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001843057284770371</v>
+        <v>0.0001748868889225668</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003477360694803559</v>
+        <v>0.002890063040492303</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000014804628993</v>
+        <v>1.000010226162241</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003625399138710333</v>
+        <v>0.003013099007381303</v>
       </c>
       <c r="P18" t="n">
-        <v>112.6459267759038</v>
+        <v>113.3859078551063</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.4953388949728</v>
+        <v>168.2353199741753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_22</t>
+          <t>model_26_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999869765356555</v>
+        <v>0.9999913683035485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990763395300165</v>
+        <v>0.9990705338628464</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999882077272815</v>
+        <v>0.9998378924830744</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999180844545648</v>
+        <v>0.9999669644550759</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999627336584792</v>
+        <v>0.9999597353519765</v>
       </c>
       <c r="G19" t="n">
-        <v>1.215683230160021e-05</v>
+        <v>8.057309749759881e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008621965047208109</v>
+        <v>0.0008676158401848112</v>
       </c>
       <c r="I19" t="n">
-        <v>5.442425721444576e-06</v>
+        <v>3.670248881909555e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>7.003532416741825e-05</v>
+        <v>1.005422884669142e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.773760355001085e-05</v>
+        <v>2.337835883289349e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001823695092725323</v>
+        <v>0.00017456675443063</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003486664925340577</v>
+        <v>0.002838540073657563</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000014883959251</v>
+        <v>1.000009864795945</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003635099469603724</v>
+        <v>0.002959382601181163</v>
       </c>
       <c r="P19" t="n">
-        <v>112.6352384337516</v>
+        <v>113.4578616702148</v>
       </c>
       <c r="Q19" t="n">
-        <v>167.4846505528207</v>
+        <v>168.3072737892839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_23</t>
+          <t>model_26_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999869067905424</v>
+        <v>0.9999916907788737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990761008793466</v>
+        <v>0.9990661272325745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999880561474351</v>
+        <v>0.999845744903723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999175808699874</v>
+        <v>0.9999700790443548</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999624852743478</v>
+        <v>0.9999620816643477</v>
       </c>
       <c r="G20" t="n">
-        <v>1.222193630325651e-05</v>
+        <v>7.756293188765319e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008624192746455629</v>
+        <v>0.0008717292361148623</v>
       </c>
       <c r="I20" t="n">
-        <v>5.512383572203594e-06</v>
+        <v>3.492463553673787e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>7.046587381381471e-05</v>
+        <v>9.106316728271493e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>3.798912869300915e-05</v>
+        <v>2.201604883531767e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001805658735529067</v>
+        <v>0.0001741861394322204</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003495988601705747</v>
+        <v>0.002785012242121266</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000014963667952</v>
+        <v>1.000009496252716</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00364482007417443</v>
+        <v>0.002903575979038479</v>
       </c>
       <c r="P20" t="n">
-        <v>112.6245563263033</v>
+        <v>113.5340120395112</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.4739684453723</v>
+        <v>168.3834241585803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_26_6_24</t>
+          <t>model_26_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999868413989669</v>
+        <v>0.9999920098005251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.99907583794737</v>
+        <v>0.9990611751720251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999879167177752</v>
+        <v>0.9998542452815347</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999171165564095</v>
+        <v>0.9999732859159066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999962258178676</v>
+        <v>0.9999645804690408</v>
       </c>
       <c r="G21" t="n">
-        <v>1.228297646860531e-05</v>
+        <v>7.458500480642356e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000862664710104419</v>
+        <v>0.0008763517672674307</v>
       </c>
       <c r="I21" t="n">
-        <v>5.576733811173407e-06</v>
+        <v>3.300007936867073e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>7.086284793847189e-05</v>
+        <v>8.130318889001056e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>3.821909616718367e-05</v>
+        <v>2.056519912883589e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001789662954006773</v>
+        <v>0.0001737472524416875</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003504707757945777</v>
+        <v>0.002731025536431755</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000015038401181</v>
+        <v>1.000009131656543</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003653910422946739</v>
+        <v>0.002847290947519879</v>
       </c>
       <c r="P21" t="n">
-        <v>112.614592562357</v>
+        <v>113.6123123438204</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.464004681426</v>
+        <v>168.4617244628894</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999849581154295</v>
+        <v>0.9999923255625642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990745588619412</v>
+        <v>0.9990555457858419</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999960967477516</v>
+        <v>0.9998635986440583</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999266339765275</v>
+        <v>0.9999765975020413</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999681394275491</v>
+        <v>0.9999672720399412</v>
       </c>
       <c r="G22" t="n">
-        <v>1.404093898409027e-05</v>
+        <v>7.163750477464672e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008638586802068522</v>
+        <v>0.0008816065521679278</v>
       </c>
       <c r="I22" t="n">
-        <v>1.801447519180116e-06</v>
+        <v>3.088240037418519e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>6.272574038869674e-05</v>
+        <v>7.122451607897987e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>3.226347430313094e-05</v>
+        <v>1.900242599104159e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002694689666784297</v>
+        <v>0.0001731876881845054</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003747124095101505</v>
+        <v>0.002676518349921157</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000017190725223</v>
+        <v>1.000008770785641</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003906646925446184</v>
+        <v>0.002790463277234093</v>
       </c>
       <c r="P22" t="n">
-        <v>112.3470665647884</v>
+        <v>113.6929538088607</v>
       </c>
       <c r="Q22" t="n">
-        <v>167.1964786838575</v>
+        <v>168.5423659279298</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999835883769577</v>
+        <v>0.9999926192782848</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999069842178992</v>
+        <v>0.9990491960509045</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999967142688073</v>
+        <v>0.9998736917297645</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999229526949314</v>
+        <v>0.999979919062518</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999966726099669</v>
+        <v>0.9999701104503076</v>
       </c>
       <c r="G23" t="n">
-        <v>1.531952972305824e-05</v>
+        <v>6.889579744955293e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008682614967014229</v>
+        <v>0.0008875337510108763</v>
       </c>
       <c r="I23" t="n">
-        <v>1.516446268137353e-06</v>
+        <v>2.859724190460995e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>6.587312527841667e-05</v>
+        <v>6.111548677770598e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>3.369467481951261e-05</v>
+        <v>1.735439529119028e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002775219156004768</v>
+        <v>0.0001725450193787826</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00391401708262218</v>
+        <v>0.002624800896250093</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00001875614062</v>
+        <v>1.000008435110532</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004080644892961726</v>
+        <v>0.002736544104490364</v>
       </c>
       <c r="P23" t="n">
-        <v>112.1727641821026</v>
+        <v>113.7710009394513</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.0221763011716</v>
+        <v>168.6204130585203</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999817227588013</v>
+        <v>0.9999928789474319</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990627838297607</v>
+        <v>0.9990419854958792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999972241225147</v>
+        <v>0.9998845936707782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999168677519265</v>
+        <v>0.9999831966513185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999642735159744</v>
+        <v>0.9999730970214962</v>
       </c>
       <c r="G24" t="n">
-        <v>1.706100238082549e-05</v>
+        <v>6.647189994253212e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008748501558831332</v>
+        <v>0.0008942644876201615</v>
       </c>
       <c r="I24" t="n">
-        <v>1.281136163156226e-06</v>
+        <v>2.612895187248425e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.107556827780386e-05</v>
+        <v>5.114028341977039e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>3.617827335274347e-05</v>
+        <v>1.562033982683691e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002874266380963842</v>
+        <v>0.0001718011195824329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004130496626414975</v>
+        <v>0.002578214497332061</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000020888275656</v>
+        <v>1.000008138345792</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004306340419108213</v>
+        <v>0.002687974426123251</v>
       </c>
       <c r="P24" t="n">
-        <v>111.9574305228474</v>
+        <v>113.8426326997083</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.8068426419164</v>
+        <v>168.6920448187773</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999791895767799</v>
+        <v>0.9999930787088193</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990541679591443</v>
+        <v>0.999033842730299</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999975501455456</v>
+        <v>0.9998961890888904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999074115122875</v>
+        <v>0.9999863041174478</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999603558809979</v>
+        <v>0.9999761724069524</v>
       </c>
       <c r="G25" t="n">
-        <v>1.942561660401287e-05</v>
+        <v>6.460721507640249e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008828926929105292</v>
+        <v>0.0009018654018631712</v>
       </c>
       <c r="I25" t="n">
-        <v>1.130668465242493e-06</v>
+        <v>2.350365286298097e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>7.916036836062965e-05</v>
+        <v>4.168284124065468e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>4.014544988703128e-05</v>
+        <v>1.38347172454193e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00029731887152919</v>
+        <v>0.0001709479435229597</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004407450124960334</v>
+        <v>0.002541794938156941</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000023783340823</v>
+        <v>1.000007910047064</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004595084401459425</v>
+        <v>0.002650004410915166</v>
       </c>
       <c r="P25" t="n">
-        <v>111.6978358388161</v>
+        <v>113.8995391158345</v>
       </c>
       <c r="Q25" t="n">
-        <v>166.5472479578851</v>
+        <v>168.7489512349035</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999757146916881</v>
+        <v>0.9999931938933759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990430266327269</v>
+        <v>0.9990246113207587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999975976028895</v>
+        <v>0.9999084360936682</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998930087744368</v>
+        <v>0.9999891579658718</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999542866383025</v>
+        <v>0.9999793035364154</v>
       </c>
       <c r="G26" t="n">
-        <v>2.266926930732905e-05</v>
+        <v>6.353201780065485e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008932926320734106</v>
+        <v>0.0009104825174569928</v>
       </c>
       <c r="I26" t="n">
-        <v>1.108765726457773e-06</v>
+        <v>2.073082921823269e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>9.147427543302189e-05</v>
+        <v>3.299727385732737e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>4.62914429020446e-05</v>
+        <v>1.201672871866931e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003075521484018759</v>
+        <v>0.0001699674799665972</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004761225609790934</v>
+        <v>0.002520555847440299</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000027754638071</v>
+        <v>1.00000777840757</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004963920841095476</v>
+        <v>0.002627861128135738</v>
       </c>
       <c r="P26" t="n">
-        <v>111.3890006513314</v>
+        <v>113.9331033096027</v>
       </c>
       <c r="Q26" t="n">
-        <v>166.2384127704004</v>
+        <v>168.7825154286718</v>
       </c>
     </row>
   </sheetData>
